--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="157">
   <si>
     <t>Pair ID</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>17 out of 39</t>
+  </si>
+  <si>
+    <t>clusters directions</t>
   </si>
 </sst>
 </file>
@@ -747,32 +750,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,6 +783,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1112,7 +1115,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B42" sqref="B42"/>
+      <selection pane="topRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1153,44 +1156,44 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40" t="s">
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="O2" s="40" t="s">
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="O2" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="T2" s="40" t="s">
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="T2" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
     </row>
     <row r="3" spans="1:23" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="15" t="s">
         <v>95</v>
       </c>
@@ -1220,7 +1223,7 @@
         <v>98</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>3</v>
@@ -1229,7 +1232,7 @@
         <v>99</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="Q3" s="16" t="s">
         <v>32</v>
@@ -2863,9 +2866,9 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="24"/>
       <c r="E30" s="31"/>
       <c r="F30" s="28">
@@ -2920,28 +2923,28 @@
       <c r="B34" s="7"/>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
-      <c r="E35" s="43" t="s">
+      <c r="E35" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="44" t="s">
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="I35" s="45">
+      <c r="I35" s="38">
         <v>0.35</v>
       </c>
     </row>
@@ -2950,15 +2953,15 @@
       <c r="B36" s="7"/>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
       <c r="H36" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I36" s="45">
+      <c r="I36" s="38">
         <v>0.77</v>
       </c>
     </row>
@@ -2967,15 +2970,15 @@
       <c r="B37" s="7"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
-      <c r="E37" s="43" t="s">
+      <c r="E37" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
       <c r="H37" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I37" s="45">
+      <c r="I37" s="38">
         <v>0.54</v>
       </c>
     </row>
@@ -2984,15 +2987,15 @@
       <c r="B38" s="7"/>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
       <c r="H38" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I38" s="45">
+      <c r="I38" s="38">
         <v>0.35</v>
       </c>
     </row>
@@ -3001,15 +3004,15 @@
       <c r="B39" s="7"/>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
       <c r="H39" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="I39" s="45">
+      <c r="I39" s="38">
         <v>0.23</v>
       </c>
     </row>
@@ -3039,11 +3042,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
     <mergeCell ref="E39:G39"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="O2:R2"/>
@@ -3053,6 +3051,11 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3075,30 +3078,30 @@
     <col min="5" max="5" width="16.21875" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="52" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -3146,7 +3149,7 @@
       <c r="G3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="41">
         <v>2.6297236638546701E-3</v>
       </c>
       <c r="I3" s="19" t="s">
@@ -3175,7 +3178,7 @@
       <c r="G4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="41">
         <v>1.14481367545965E-3</v>
       </c>
       <c r="I4" s="19" t="s">
@@ -3204,7 +3207,7 @@
       <c r="G5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="41">
         <v>-7.8141552864598304E-4</v>
       </c>
       <c r="I5" s="14" t="s">
@@ -3233,7 +3236,7 @@
       <c r="G6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="41">
         <v>4.7769970674194502E-4</v>
       </c>
       <c r="I6" s="19" t="s">
@@ -3262,7 +3265,7 @@
       <c r="G7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="41">
         <v>9.92200965524586E-4</v>
       </c>
       <c r="I7" s="19" t="s">
@@ -3291,7 +3294,7 @@
       <c r="G8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="41">
         <v>2.0912506048726101E-4</v>
       </c>
       <c r="I8" s="19" t="s">
@@ -3320,7 +3323,7 @@
       <c r="G9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="41">
         <v>4.2658733150239903E-3</v>
       </c>
       <c r="I9" s="19" t="s">
@@ -3349,7 +3352,7 @@
       <c r="G10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="41">
         <v>-4.4497265618970801E-4</v>
       </c>
       <c r="I10" s="14" t="s">
@@ -3378,7 +3381,7 @@
       <c r="G11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="41">
         <v>8.1959200629836998E-4</v>
       </c>
       <c r="I11" s="14" t="s">
@@ -3407,7 +3410,7 @@
       <c r="G12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="41">
         <v>1.5551641819092599E-3</v>
       </c>
       <c r="I12" s="14" t="s">
@@ -3436,7 +3439,7 @@
       <c r="G13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="41">
         <v>7.01052379771104E-6</v>
       </c>
       <c r="I13" s="14" t="s">
@@ -3465,7 +3468,7 @@
       <c r="G14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="41">
         <v>-5.8825994792273298E-4</v>
       </c>
       <c r="I14" s="19" t="s">
@@ -3494,7 +3497,7 @@
       <c r="G15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="41">
         <v>-1.51386867434904E-3</v>
       </c>
       <c r="I15" s="19" t="s">
@@ -3523,7 +3526,7 @@
       <c r="G16" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="41">
         <v>-2.0256933051735599E-3</v>
       </c>
       <c r="I16" s="19" t="s">
@@ -3552,7 +3555,7 @@
       <c r="G17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="41">
         <v>-1.5006200717110399E-3</v>
       </c>
       <c r="I17" s="19" t="s">
@@ -3581,7 +3584,7 @@
       <c r="G18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="41">
         <v>-1.90496961147365E-3</v>
       </c>
       <c r="I18" s="19" t="s">
@@ -3610,7 +3613,7 @@
       <c r="G19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="49">
+      <c r="H19" s="41">
         <v>-1.75525115772412E-3</v>
       </c>
       <c r="I19" s="19" t="s">
@@ -3639,7 +3642,7 @@
       <c r="G20" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="41">
         <v>-1.0340445091851899E-3</v>
       </c>
       <c r="I20" s="19" t="s">
@@ -3668,7 +3671,7 @@
       <c r="G21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="49">
+      <c r="H21" s="41">
         <v>-1.7610026985205301E-3</v>
       </c>
       <c r="I21" s="19" t="s">
@@ -3697,7 +3700,7 @@
       <c r="G22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="41">
         <v>1.85931179501517E-3</v>
       </c>
       <c r="I22" s="19" t="s">
@@ -3726,7 +3729,7 @@
       <c r="G23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="49">
+      <c r="H23" s="41">
         <v>6.9945645420892101E-4</v>
       </c>
       <c r="I23" s="19" t="s">
@@ -3755,7 +3758,7 @@
       <c r="G24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="49">
+      <c r="H24" s="41">
         <v>2.9201416952294597E-4</v>
       </c>
       <c r="I24" s="14" t="s">
@@ -3784,7 +3787,7 @@
       <c r="G25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="49">
+      <c r="H25" s="41">
         <v>-2.7620378214887901E-4</v>
       </c>
       <c r="I25" s="19" t="s">
@@ -3813,7 +3816,7 @@
       <c r="G26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="49">
+      <c r="H26" s="41">
         <v>3.0654693249744101E-4</v>
       </c>
       <c r="I26" s="19" t="s">
@@ -3842,7 +3845,7 @@
       <c r="G27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="49">
+      <c r="H27" s="41">
         <v>6.1257962587666403E-3</v>
       </c>
       <c r="I27" s="19" t="s">
@@ -3871,7 +3874,7 @@
       <c r="G28" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H28" s="49">
+      <c r="H28" s="41">
         <v>1.4269492295473199E-5</v>
       </c>
       <c r="I28" s="14" t="s">
@@ -3901,7 +3904,7 @@
       <c r="G29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="49">
+      <c r="H29" s="41">
         <v>8.9362048702047604E-3</v>
       </c>
       <c r="I29" s="14" t="s">
@@ -3931,7 +3934,7 @@
       <c r="G30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="49">
+      <c r="H30" s="41">
         <v>6.5580408180624002E-4</v>
       </c>
       <c r="I30" s="19" t="s">
@@ -3961,7 +3964,7 @@
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="49">
+      <c r="H31" s="41">
         <v>2.34559568296212E-4</v>
       </c>
       <c r="I31" s="19" t="s">
@@ -3991,7 +3994,7 @@
       <c r="G32" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="49">
+      <c r="H32" s="41">
         <v>-1.0104675011317001E-3</v>
       </c>
       <c r="I32" s="14" t="s">
@@ -4021,7 +4024,7 @@
       <c r="G33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="49">
+      <c r="H33" s="41">
         <v>1.04420441252993E-5</v>
       </c>
       <c r="I33" s="14" t="s">
@@ -4051,7 +4054,7 @@
       <c r="G34" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="49">
+      <c r="H34" s="41">
         <v>3.4809534235007199E-4</v>
       </c>
       <c r="I34" s="19" t="s">
@@ -4081,7 +4084,7 @@
       <c r="G35" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="49">
+      <c r="H35" s="41">
         <v>-2.1661986656739801E-5</v>
       </c>
       <c r="I35" s="19" t="s">
@@ -4111,7 +4114,7 @@
       <c r="G36" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="49">
+      <c r="H36" s="41">
         <v>-3.7690119057075499E-4</v>
       </c>
       <c r="I36" s="19" t="s">
@@ -4141,7 +4144,7 @@
       <c r="G37" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="49">
+      <c r="H37" s="41">
         <v>6.2872878435533898E-4</v>
       </c>
       <c r="I37" s="26" t="s">
@@ -4171,7 +4174,7 @@
       <c r="G38" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="50">
+      <c r="H38" s="42">
         <v>-7.6690825136855895E-4</v>
       </c>
       <c r="I38" s="14" t="s">
@@ -4200,7 +4203,7 @@
       <c r="G39" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="50">
+      <c r="H39" s="42">
         <v>-1.22008752586894E-4</v>
       </c>
       <c r="I39" s="14" t="s">
@@ -4229,7 +4232,7 @@
       <c r="G40" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="50">
+      <c r="H40" s="42">
         <v>1.02328175369031E-3</v>
       </c>
       <c r="I40" s="19" t="s">
@@ -4258,26 +4261,26 @@
       <c r="G41" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="50">
+      <c r="H41" s="42">
         <v>1.7349322190088299E-4</v>
       </c>
       <c r="I41" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="53"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="54">
+    <row r="42" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="46">
         <f>17/39</f>
         <v>0.4358974358974359</v>
       </c>
-      <c r="G42" s="55"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="54">
+      <c r="G42" s="47"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="46">
         <f>26/39</f>
         <v>0.66666666666666663</v>
       </c>
@@ -4290,44 +4293,44 @@
       <c r="E43" s="23"/>
       <c r="F43" s="30"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="51"/>
+      <c r="H43" s="43"/>
       <c r="I43" s="7"/>
       <c r="K43" s="21"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
       <c r="K44" s="21"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="44" t="s">
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="G45" s="58">
+      <c r="G45" s="50">
         <v>0.44</v>
       </c>
       <c r="K45" s="21"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C46" s="43" t="s">
+      <c r="C46" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
       <c r="F46" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G46" s="58">
+      <c r="G46" s="50">
         <v>0.67</v>
       </c>
       <c r="K46" s="21"/>
@@ -4337,13 +4340,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C44:G44"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="C46:E46"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C44:G44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4367,26 +4370,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
+      <c r="A2" s="54"/>
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -4413,17 +4416,17 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
@@ -5197,17 +5200,17 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="20"/>
-      <c r="B30" s="47"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="48">
+      <c r="F30" s="40">
         <f>9/25</f>
         <v>0.36</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
-      <c r="I30" s="48">
+      <c r="I30" s="40">
         <f>21/25</f>
         <v>0.84</v>
       </c>
@@ -5217,50 +5220,50 @@
       <c r="K31" s="21"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="44" t="s">
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="F34" s="58">
+      <c r="F34" s="50">
         <v>0.36</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
       <c r="E35" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="58">
+      <c r="F35" s="50">
         <v>0.84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A3:I3"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -784,9 +784,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -804,6 +801,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1115,7 +1115,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K18" sqref="K18"/>
+      <selection pane="topRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,44 +1156,44 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="56" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="53" t="s">
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="O2" s="53" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="O2" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="T2" s="53" t="s">
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="T2" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
     </row>
     <row r="3" spans="1:23" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="15" t="s">
         <v>95</v>
       </c>
@@ -2866,9 +2866,9 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="24"/>
       <c r="E30" s="31"/>
       <c r="F30" s="28">
@@ -2923,24 +2923,24 @@
       <c r="B34" s="7"/>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
-      <c r="E34" s="51" t="s">
+      <c r="E34" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
-      <c r="E35" s="52" t="s">
+      <c r="E35" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
       <c r="H35" s="37" t="s">
         <v>139</v>
       </c>
@@ -2953,11 +2953,11 @@
       <c r="B36" s="7"/>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
-      <c r="E36" s="52" t="s">
+      <c r="E36" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
       <c r="H36" s="3" t="s">
         <v>140</v>
       </c>
@@ -2970,11 +2970,11 @@
       <c r="B37" s="7"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
-      <c r="E37" s="52" t="s">
+      <c r="E37" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
       <c r="H37" s="3" t="s">
         <v>141</v>
       </c>
@@ -2987,11 +2987,11 @@
       <c r="B38" s="7"/>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
-      <c r="E38" s="52" t="s">
+      <c r="E38" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
       <c r="H38" s="3" t="s">
         <v>139</v>
       </c>
@@ -3004,11 +3004,11 @@
       <c r="B39" s="7"/>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
       <c r="H39" s="3" t="s">
         <v>142</v>
       </c>
@@ -3066,8 +3066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3082,26 +3082,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="53" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -4298,21 +4298,21 @@
       <c r="K43" s="21"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
       <c r="K44" s="21"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
       <c r="F45" s="37" t="s">
         <v>155</v>
       </c>
@@ -4322,11 +4322,11 @@
       <c r="K45" s="21"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
       <c r="F46" s="3" t="s">
         <v>150</v>
       </c>
@@ -4357,8 +4357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4370,26 +4370,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="53" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -5220,20 +5220,20 @@
       <c r="K31" s="21"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
       <c r="E34" s="37" t="s">
         <v>154</v>
       </c>
@@ -5242,11 +5242,11 @@
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
       <c r="E35" s="3" t="s">
         <v>153</v>
       </c>
